--- a/biology/Médecine/1567_en_santé_et_médecine/1567_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1567_en_santé_et_médecine/1567_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1567_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1567_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1567 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1567_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1567_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En Flandre, « création à Malines, par Marguerite de Parme, d'un hôpital militaire à l'usage des Espagnols », qui préfigure l'« Hôpital royal de l'armée » qu'Alexandre Farnèse fondera en 1585[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En Flandre, « création à Malines, par Marguerite de Parme, d'un hôpital militaire à l'usage des Espagnols », qui préfigure l'« Hôpital royal de l'armée » qu'Alexandre Farnèse fondera en 1585.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1567_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1567_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Treize ouvrages concernant l’alchimie et le paracelsisme paraissent la même année à Anvers, Paris, Strasbourg, Lyon, Cologne et Zurich, ce qui marque le début de ce qui a été appelé le « renouveau paracelsien[2] ».
-Andrea Bacci (1524-1600) obtient la chaire de lecture des simples de la faculté de médecine du Studium Urbis[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Treize ouvrages concernant l’alchimie et le paracelsisme paraissent la même année à Anvers, Paris, Strasbourg, Lyon, Cologne et Zurich, ce qui marque le début de ce qui a été appelé le « renouveau paracelsien ».
+Andrea Bacci (1524-1600) obtient la chaire de lecture des simples de la faculté de médecine du Studium Urbis.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1567_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1567_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Guillaume Plançon rassemble et fait imprimer en un volume à Paris, chez André Wechel et sous le titre d'Universa medica, divers écrits de  Jean Fernel (c.1506-1558), sur la physiologie, la pathologie et la thérapeutique, ouvrage capital qui sera réédité plus de trente fois[4].
-Jacques Grévin (1538-1570) fait paraître à Anvers, chez Christophe Plantin, ses Deux livres des venins[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Guillaume Plançon rassemble et fait imprimer en un volume à Paris, chez André Wechel et sous le titre d'Universa medica, divers écrits de  Jean Fernel (c.1506-1558), sur la physiologie, la pathologie et la thérapeutique, ouvrage capital qui sera réédité plus de trente fois.
+Jacques Grévin (1538-1570) fait paraître à Anvers, chez Christophe Plantin, ses Deux livres des venins.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1567_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1567_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,12 +621,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12 février : Thomas Campian (mort en 1620), médecin anglais, surtout connu comme compositeur[6].
-28 mars : Thomas Fienus (mort en 1631), professeur de médecine à Louvain[7].
-Élie de Montalto (mort en 1616), médecin de Marie de Médicis[8].
-Vers 1567 : Guilhem Ader (mort en 1628), médecin, écrivain et poète gascon[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12 février : Thomas Campian (mort en 1620), médecin anglais, surtout connu comme compositeur.
+28 mars : Thomas Fienus (mort en 1631), professeur de médecine à Louvain.
+Élie de Montalto (mort en 1616), médecin de Marie de Médicis.
+Vers 1567 : Guilhem Ader (mort en 1628), médecin, écrivain et poète gascon.</t>
         </is>
       </c>
     </row>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1567_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1567_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2 novembre : Bartholomäus Carrichter (né vers 1510),  médecin et astrologue suisse[10].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 novembre : Bartholomäus Carrichter (né vers 1510),  médecin et astrologue suisse.</t>
         </is>
       </c>
     </row>
